--- a/pred_ohlcv/54_21/2019-10-22 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 LAMB ohlcv.xlsx
@@ -1536,7 +1536,7 @@
         <v>1026856.236164031</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1019964.469164031</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>930137.1384640313</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>941825.7735640312</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>908918.0459984526</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>848005.2412984526</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>849370.1458984526</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1079466.434598452</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1087601.799898452</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1150183.049898452</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1149850.103498452</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1136536.229398452</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1125931.229398452</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1118931.229398452</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1123331.229398452</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1123331.229398452</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1124331.229398452</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1119347.229398452</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1119347.229398452</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1119347.229398452</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1119347.229398452</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1105321.646798452</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1105321.646798452</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1129184.646798452</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1129174.646798452</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1176726.711398452</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1180445.252998452</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1180445.252998452</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1125652.808964031</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1133097.067864031</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1133097.067864031</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1132897.067864031</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1132907.167864031</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1132051.027564031</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1131250.428664031</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1128150.923764031</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1122000.942164031</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1122000.942164031</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1122164.245464031</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1085190.063364031</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1085200.063364031</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1084222.278664031</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1084233.458664031</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1084243.638664031</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1084243.638664031</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1084243.638664031</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1084243.638664031</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1084243.638664031</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1105443.638664031</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1115262.722964031</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1115262.722964031</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>743093.3761480881</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>777197.6548480882</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>771002.0817480881</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>771002.0817480881</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>776743.1710480881</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>865411.7741480881</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>889878.1954480881</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>877312.9177480881</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>877312.9177480881</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>845802.9177480881</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>845802.9177480881</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>848942.9177480881</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>848942.9177480881</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>745093.3740480881</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>745093.3740480881</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>745093.3740480881</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>745093.3740480881</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>746784.2669480881</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>746784.2669480881</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>746784.2669480881</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>750784.2669480881</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>745365.1055480881</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>758821.504148088</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>758821.504148088</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>758821.504148088</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>758821.504148088</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>739775.721548088</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>739775.721548088</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>722873.668048088</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>748357.0823480879</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>840385.2128480879</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>836250.2075480879</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>837104.7075480879</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>819904.7075480879</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>819904.7075480879</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>859988.058748088</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>859988.058748088</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>894603.117748088</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>2593986.598762092</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>3026855.464862092</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>3096676.992462093</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>3010480.298762092</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>3552518.844062092</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>3552518.844062092</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>3449533.312562092</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>3301310.058434819</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>3416098.247150609</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>3302966.105050609</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>3302966.105050609</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>3302966.105050609</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>3437073.596250609</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>3418825.630050609</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>3472537.630250609</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>3433689.380050609</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>3571974.438950609</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>3494203.561050609</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>3528226.044350609</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>3608845.618250609</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>3208531.842266398</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>3263092.495066398</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>3323043.430912592</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>3307285.127612592</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>3307285.127612592</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>3277718.002190956</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>3042160.079090956</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>3063631.472190956</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>2938155.794590956</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>2987925.648590955</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>2987925.648590955</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>2987925.648590955</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>2982029.858990956</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>2936392.370033264</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>5873429.448496922</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>6043088.618696922</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>5449708.617796921</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>4966007.126496921</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>4754907.74062769</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>4754907.74062769</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>4655045.61022769</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>4655045.61022769</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>4525313.82032769</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>4730768.087020373</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>4917361.05832769</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>4917361.05832769</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>4917361.05832769</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>4917361.05832769</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>4764691.24012769</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>4800412.14402769</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>4800412.14402769</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>4791565.493727691</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>4791565.493727691</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>4791565.493727691</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>4794318.960586514</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>4926939.232386515</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>4859009.944386515</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>4859009.944386515</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>4857484.657086515</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>4788979.488486514</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>4788979.488486514</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>4813151.484286514</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>4822429.667386514</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>4821222.899386514</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>4821242.899386514</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>4817986.097286514</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>4817986.097286514</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>4819844.380786514</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>4651327.185286514</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>4728940.211391333</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>4832991.973933952</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>4750736.806406873</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>4636718.305106874</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>4519085.357016582</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>4447168.134716582</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>4447178.134716582</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>4482249.408916582</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>4493651.244516582</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>4626973.147116582</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>4611829.279216582</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>4442918.072416582</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>4796166.950189691</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>5569162.948889691</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>5569162.948889691</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>5356329.074689691</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>5309142.478189691</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>5596773.047301719</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>5595319.010801719</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>5405777.545301719</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>5029344.823101719</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>4773835.421601719</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>4697671.937298819</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>4697671.937298819</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>4293823.969098819</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>4443523.619814016</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>4436840.683614016</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>4439340.683614016</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>4365917.703314016</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>4365917.703314016</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>4388127.703314016</v>
       </c>
       <c r="H947">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>4388127.703314016</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-22 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 LAMB ohlcv.xlsx
@@ -1536,7 +1536,7 @@
         <v>1026856.236164031</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1019964.469164031</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1097124.960564031</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1065648.645264031</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1294198.371664031</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1137073.269064031</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>986503.3656640315</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>986503.3656640315</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1053147.042164031</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>930137.1384640313</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>941825.7735640312</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>908918.0459984526</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>848005.2412984526</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1149850.103498452</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1144848.229398452</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1132051.027564031</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1131250.428664031</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1128150.923764031</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1122000.942164031</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1084243.638664031</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1084243.638664031</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>1084243.638664031</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1084243.638664031</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1105443.638664031</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>1115262.722964031</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>1115262.722964031</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>743093.3761480881</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>777197.6548480882</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>771002.0817480881</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>771002.0817480881</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>776743.1710480881</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>865411.7741480881</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>889878.1954480881</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>877312.9177480881</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>877312.9177480881</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>845802.9177480881</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>845802.9177480881</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>848942.9177480881</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>848942.9177480881</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>745093.3740480881</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>745093.3740480881</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>745093.3740480881</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>745093.3740480881</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>746784.2669480881</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>746784.2669480881</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>746784.2669480881</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>750784.2669480881</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>745365.1055480881</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>758821.504148088</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>758821.504148088</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>758821.504148088</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>758821.504148088</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>739775.721548088</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>739775.721548088</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>722873.668048088</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>748357.0823480879</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>840385.2128480879</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>836250.2075480879</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>837104.7075480879</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>819904.7075480879</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>819904.7075480879</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>859988.058748088</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>859988.058748088</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>894603.117748088</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>2593986.598762092</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>3026855.464862092</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>3096676.992462093</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>3010480.298762092</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>3552518.844062092</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>3552518.844062092</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>3449533.312562092</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>3301310.058434819</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>3416098.247150609</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>3302966.105050609</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>3302966.105050609</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>3302966.105050609</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>3437073.596250609</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>3418825.630050609</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>3472537.630250609</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>3433689.380050609</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>3571974.438950609</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>3494203.561050609</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>3528226.044350609</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>3608845.618250609</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>3208531.842266398</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>3263092.495066398</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>3323043.430912592</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>3307285.127612592</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>3307285.127612592</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>3277718.002190956</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>3042160.079090956</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>3063631.472190956</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>2938155.794590956</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>2987925.648590955</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>2987925.648590955</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>2987925.648590955</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>2982029.858990956</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>2936392.370033264</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>4510585.187540021</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>4827200.578340021</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>4745839.225018471</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>4853903.481096921</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>4728047.706296922</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>5314398.360896922</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>5314398.360896922</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>5314398.360896922</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>5722652.455696922</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>5873429.448496922</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>6043088.618696922</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>5449708.617796921</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>4966007.126496921</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>4754907.74062769</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>4754907.74062769</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>4655045.61022769</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>4655045.61022769</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>4525313.82032769</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>4730768.087020373</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>4917361.05832769</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>4917361.05832769</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>4917361.05832769</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>4917361.05832769</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>4764691.24012769</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>4800412.14402769</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>4800412.14402769</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>4791565.493727691</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>4791565.493727691</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>4791565.493727691</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>4794318.960586514</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>4926939.232386515</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>4859009.944386515</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>4859009.944386515</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>4857484.657086515</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>4788979.488486514</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>4788979.488486514</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>4813151.484286514</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>4822429.667386514</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>4821222.899386514</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>4821242.899386514</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>4817986.097286514</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>4817986.097286514</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>4819844.380786514</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>4651327.185286514</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>4728940.211391333</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>4832991.973933952</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>4750736.806406873</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>4636718.305106874</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>4626973.147116582</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>4611829.279216582</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>4444081.726116582</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>5569162.948889691</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>5569162.948889691</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>5356329.074689691</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>5309142.478189691</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>5596773.047301719</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>5595319.010801719</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>5405777.545301719</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>5029344.823101719</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>4773835.421601719</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
